--- a/table of net weights corrected names.xlsx
+++ b/table of net weights corrected names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc-my.sharepoint.com/personal/jeff_main_usda_gov/Documents/Documents/MARS/MIGRATION/Movement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarav\ProducePrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{6CF679F6-6EAA-46B0-95D1-2E1D7ED56942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFCFB3F5-596F-48FC-897F-B4FE919C249E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDB3DEC-07B6-4554-80C5-421E4CFF9981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{2EDB5A5F-D3B8-40F9-8184-9FF21C7B520C}"/>
+    <workbookView xWindow="34452" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{2EDB5A5F-D3B8-40F9-8184-9FF21C7B520C}"/>
   </bookViews>
   <sheets>
     <sheet name="Table Net Weights" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table Net Weights'!$A$1:$F$827</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3332,9 +3332,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3372,7 +3372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3478,7 +3478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3620,7 +3620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3634,15 +3634,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="5" width="37.44140625" customWidth="1"/>
-    <col min="6" max="6" width="37.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="5" customWidth="1"/>
+    <col min="1" max="3" width="22.1328125" customWidth="1"/>
+    <col min="4" max="5" width="37.46484375" customWidth="1"/>
+    <col min="6" max="6" width="37.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.53125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>59</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>59</v>
       </c>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>59</v>
       </c>
@@ -5022,7 +5022,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>59</v>
       </c>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>59</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>59</v>
       </c>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>59</v>
       </c>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>59</v>
       </c>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>59</v>
       </c>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>59</v>
       </c>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>59</v>
       </c>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>59</v>
       </c>
@@ -5310,7 +5310,7 @@
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>59</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>59</v>
       </c>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>59</v>
       </c>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>59</v>
       </c>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>59</v>
       </c>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>165</v>
       </c>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>165</v>
       </c>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>165</v>
       </c>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>165</v>
       </c>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>165</v>
       </c>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>165</v>
       </c>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>165</v>
       </c>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>165</v>
       </c>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>165</v>
       </c>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>165</v>
       </c>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>165</v>
       </c>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="G114"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>165</v>
       </c>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="G115"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>165</v>
       </c>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>165</v>
       </c>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>165</v>
       </c>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>165</v>
       </c>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>165</v>
       </c>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>165</v>
       </c>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>165</v>
       </c>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="G123"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>165</v>
       </c>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>165</v>
       </c>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="G125"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>165</v>
       </c>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="G126"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>165</v>
       </c>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="G127"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>165</v>
       </c>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="G128"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>165</v>
       </c>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="G129"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>165</v>
       </c>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="G130"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>165</v>
       </c>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="G131"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="G132"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>165</v>
       </c>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>165</v>
       </c>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="G134"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>165</v>
       </c>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="G135"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>165</v>
       </c>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="G136"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>165</v>
       </c>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>203</v>
       </c>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="G138"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>203</v>
       </c>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>203</v>
       </c>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>203</v>
       </c>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>203</v>
       </c>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>203</v>
       </c>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="G143"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>203</v>
       </c>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>203</v>
       </c>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>203</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>203</v>
       </c>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>203</v>
       </c>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>203</v>
       </c>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>203</v>
       </c>
@@ -6387,7 +6387,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>203</v>
       </c>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>203</v>
       </c>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>203</v>
       </c>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>203</v>
       </c>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>203</v>
       </c>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>203</v>
       </c>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>203</v>
       </c>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>203</v>
       </c>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>203</v>
       </c>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>203</v>
       </c>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>203</v>
       </c>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>203</v>
       </c>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>203</v>
       </c>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>203</v>
       </c>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>203</v>
       </c>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>203</v>
       </c>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="G168"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>203</v>
       </c>
@@ -6786,7 +6786,7 @@
       </c>
       <c r="G169"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>203</v>
       </c>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="G170"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>203</v>
       </c>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>203</v>
       </c>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="G172"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>203</v>
       </c>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>203</v>
       </c>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>203</v>
       </c>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>203</v>
       </c>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>203</v>
       </c>
@@ -6954,7 +6954,7 @@
       </c>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>203</v>
       </c>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>203</v>
       </c>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="G179"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>203</v>
       </c>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>203</v>
       </c>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>203</v>
       </c>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>203</v>
       </c>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>203</v>
       </c>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>203</v>
       </c>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>203</v>
       </c>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>203</v>
       </c>
@@ -7191,7 +7191,7 @@
       </c>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>203</v>
       </c>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>274</v>
       </c>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>274</v>
       </c>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>274</v>
       </c>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>274</v>
       </c>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>274</v>
       </c>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>274</v>
       </c>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>274</v>
       </c>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>274</v>
       </c>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>274</v>
       </c>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>274</v>
       </c>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>274</v>
       </c>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>274</v>
       </c>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>274</v>
       </c>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>274</v>
       </c>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>274</v>
       </c>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>274</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>274</v>
       </c>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>274</v>
       </c>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>274</v>
       </c>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>274</v>
       </c>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>274</v>
       </c>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>274</v>
       </c>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>274</v>
       </c>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="G214"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>274</v>
       </c>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>274</v>
       </c>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>274</v>
       </c>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="G217"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>274</v>
       </c>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>274</v>
       </c>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="G219"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>274</v>
       </c>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="G220"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>274</v>
       </c>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="G221"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>274</v>
       </c>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>274</v>
       </c>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="G223"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>274</v>
       </c>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="G224"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>274</v>
       </c>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="G225"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>274</v>
       </c>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="G226"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>274</v>
       </c>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="G227"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>274</v>
       </c>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="G228"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>274</v>
       </c>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="G229"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>274</v>
       </c>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="G230"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>338</v>
       </c>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="G231"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>338</v>
       </c>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="G232"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>338</v>
       </c>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="G233"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>338</v>
       </c>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="G234"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>338</v>
       </c>
@@ -8037,7 +8037,7 @@
       </c>
       <c r="G235"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>338</v>
       </c>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="G236"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>338</v>
       </c>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="G237"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>338</v>
       </c>
@@ -8100,7 +8100,7 @@
       </c>
       <c r="G238"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>338</v>
       </c>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="G239"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>338</v>
       </c>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="G240"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>338</v>
       </c>
@@ -8163,7 +8163,7 @@
       </c>
       <c r="G241"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>338</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="G242"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>338</v>
       </c>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="G243"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>338</v>
       </c>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="G244"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>338</v>
       </c>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="G245"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>338</v>
       </c>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="G246"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>338</v>
       </c>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="G247"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>338</v>
       </c>
@@ -8310,7 +8310,7 @@
       </c>
       <c r="G248"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>338</v>
       </c>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="G249"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>338</v>
       </c>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="G250"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>338</v>
       </c>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="G251"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>338</v>
       </c>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="G252"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>338</v>
       </c>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="G253"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>338</v>
       </c>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="G254"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>338</v>
       </c>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="G255"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>338</v>
       </c>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="G256"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>338</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="G257"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>338</v>
       </c>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="G258"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>338</v>
       </c>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="G259"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>338</v>
       </c>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="G260"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>338</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="G261"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>338</v>
       </c>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="G262"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>338</v>
       </c>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="G263"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>338</v>
       </c>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="G264"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>338</v>
       </c>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="G265"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>338</v>
       </c>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="G266"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>338</v>
       </c>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="G267"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>338</v>
       </c>
@@ -8730,7 +8730,7 @@
       </c>
       <c r="G268"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>338</v>
       </c>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="G269"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>338</v>
       </c>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="G270"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>338</v>
       </c>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="G271"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>338</v>
       </c>
@@ -8814,7 +8814,7 @@
       </c>
       <c r="G272"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>338</v>
       </c>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="G273"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>338</v>
       </c>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="G274"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>338</v>
       </c>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="G275"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>338</v>
       </c>
@@ -8898,7 +8898,7 @@
       </c>
       <c r="G276"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>338</v>
       </c>
@@ -8919,7 +8919,7 @@
       </c>
       <c r="G277"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>338</v>
       </c>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="G278"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>338</v>
       </c>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="G279"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>338</v>
       </c>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="G280"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>338</v>
       </c>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="G281"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>338</v>
       </c>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="G282"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>338</v>
       </c>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="G283"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>338</v>
       </c>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="G284"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>338</v>
       </c>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="G285"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>338</v>
       </c>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="G286"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>338</v>
       </c>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="G287"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>338</v>
       </c>
@@ -9150,7 +9150,7 @@
       </c>
       <c r="G288"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>338</v>
       </c>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="G289"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>338</v>
       </c>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="G290"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>338</v>
       </c>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="G291"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>338</v>
       </c>
@@ -9234,7 +9234,7 @@
       </c>
       <c r="G292"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>338</v>
       </c>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="G293"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>338</v>
       </c>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="G294"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>338</v>
       </c>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="G295"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>338</v>
       </c>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="G296"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>338</v>
       </c>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="G297"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>338</v>
       </c>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="G298"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>338</v>
       </c>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="G299"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>338</v>
       </c>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="G300"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>338</v>
       </c>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="G301"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>338</v>
       </c>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="G302"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>338</v>
       </c>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="G303"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>338</v>
       </c>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="G304"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>409</v>
       </c>
@@ -9483,7 +9483,7 @@
       </c>
       <c r="G305"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>409</v>
       </c>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="G306"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>409</v>
       </c>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="G307"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>409</v>
       </c>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="G308"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>409</v>
       </c>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="G309"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>409</v>
       </c>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="G310"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>409</v>
       </c>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="G311"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>409</v>
       </c>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="G312"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>409</v>
       </c>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="G313"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>409</v>
       </c>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="G314"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>409</v>
       </c>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="G315"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>409</v>
       </c>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="G316"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>409</v>
       </c>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="G317"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>409</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="G318"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>409</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="G319"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>409</v>
       </c>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="G320"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>409</v>
       </c>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="G321"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>409</v>
       </c>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="G322"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>409</v>
       </c>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="G323"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>409</v>
       </c>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="G324"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>409</v>
       </c>
@@ -9843,7 +9843,7 @@
       </c>
       <c r="G325"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>409</v>
       </c>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="G326"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>409</v>
       </c>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="G327"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="G328"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>409</v>
       </c>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="G329"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>409</v>
       </c>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="G330"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>409</v>
       </c>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="G331"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>409</v>
       </c>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="G332"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>409</v>
       </c>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="G333"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>409</v>
       </c>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="G334"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>409</v>
       </c>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="G335"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>409</v>
       </c>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="G336"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>409</v>
       </c>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="G337"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>409</v>
       </c>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="G338"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>409</v>
       </c>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="G339"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>409</v>
       </c>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="G340"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>409</v>
       </c>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="G341"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>409</v>
       </c>
@@ -10152,7 +10152,7 @@
       </c>
       <c r="G342"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>409</v>
       </c>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="G343"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>409</v>
       </c>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="G344"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>409</v>
       </c>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="G345"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>409</v>
       </c>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="G346"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>409</v>
       </c>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="G347"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>409</v>
       </c>
@@ -10278,7 +10278,7 @@
       </c>
       <c r="G348"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>409</v>
       </c>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="G349"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>409</v>
       </c>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="G350"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>409</v>
       </c>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="G351"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>409</v>
       </c>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="G352"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>409</v>
       </c>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="G353"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>409</v>
       </c>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="G354"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>409</v>
       </c>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="G355"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>409</v>
       </c>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="G356"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>409</v>
       </c>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="G357"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>409</v>
       </c>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="G358"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>409</v>
       </c>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="G359"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>409</v>
       </c>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="G360"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>409</v>
       </c>
@@ -10524,7 +10524,7 @@
       </c>
       <c r="G361"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>409</v>
       </c>
@@ -10542,7 +10542,7 @@
       </c>
       <c r="G362"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>409</v>
       </c>
@@ -10560,7 +10560,7 @@
       </c>
       <c r="G363"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>409</v>
       </c>
@@ -10578,7 +10578,7 @@
       </c>
       <c r="G364"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>409</v>
       </c>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="G365"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>409</v>
       </c>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="G366"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>409</v>
       </c>
@@ -10632,7 +10632,7 @@
       </c>
       <c r="G367"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>409</v>
       </c>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="G368"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>409</v>
       </c>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="G369"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>409</v>
       </c>
@@ -10686,7 +10686,7 @@
       </c>
       <c r="G370"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>409</v>
       </c>
@@ -10704,7 +10704,7 @@
       </c>
       <c r="G371"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>409</v>
       </c>
@@ -10722,7 +10722,7 @@
       </c>
       <c r="G372"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>409</v>
       </c>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="G373"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>409</v>
       </c>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="G374"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>409</v>
       </c>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="G375"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>409</v>
       </c>
@@ -10794,7 +10794,7 @@
       </c>
       <c r="G376"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>409</v>
       </c>
@@ -10812,7 +10812,7 @@
       </c>
       <c r="G377"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>409</v>
       </c>
@@ -10830,7 +10830,7 @@
       </c>
       <c r="G378"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>409</v>
       </c>
@@ -10848,7 +10848,7 @@
       </c>
       <c r="G379"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>409</v>
       </c>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="G380"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>409</v>
       </c>
@@ -10884,7 +10884,7 @@
       </c>
       <c r="G381"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>409</v>
       </c>
@@ -10902,7 +10902,7 @@
       </c>
       <c r="G382"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>409</v>
       </c>
@@ -10920,7 +10920,7 @@
       </c>
       <c r="G383"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>409</v>
       </c>
@@ -10938,7 +10938,7 @@
       </c>
       <c r="G384"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>409</v>
       </c>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="G385"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>409</v>
       </c>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="G386"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>409</v>
       </c>
@@ -10992,7 +10992,7 @@
       </c>
       <c r="G387"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>409</v>
       </c>
@@ -11010,7 +11010,7 @@
       </c>
       <c r="G388"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="G389"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>409</v>
       </c>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="G390"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>409</v>
       </c>
@@ -11064,7 +11064,7 @@
       </c>
       <c r="G391"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>409</v>
       </c>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="G392"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>409</v>
       </c>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="G393"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>409</v>
       </c>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="G394"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>409</v>
       </c>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="G395"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>409</v>
       </c>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="G396"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>409</v>
       </c>
@@ -11172,7 +11172,7 @@
       </c>
       <c r="G397"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>409</v>
       </c>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="G398"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>409</v>
       </c>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="G399"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>409</v>
       </c>
@@ -11226,7 +11226,7 @@
       </c>
       <c r="G400"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>409</v>
       </c>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="G401"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>409</v>
       </c>
@@ -11262,7 +11262,7 @@
       </c>
       <c r="G402"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>409</v>
       </c>
@@ -11280,7 +11280,7 @@
       </c>
       <c r="G403"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>409</v>
       </c>
@@ -11298,7 +11298,7 @@
       </c>
       <c r="G404"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>409</v>
       </c>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="G405"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>409</v>
       </c>
@@ -11334,7 +11334,7 @@
       </c>
       <c r="G406"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>409</v>
       </c>
@@ -11352,7 +11352,7 @@
       </c>
       <c r="G407"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>409</v>
       </c>
@@ -11370,7 +11370,7 @@
       </c>
       <c r="G408"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>409</v>
       </c>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="G409"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="G410"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="G411"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>409</v>
       </c>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="G412"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>409</v>
       </c>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="G413"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>409</v>
       </c>
@@ -11478,7 +11478,7 @@
       </c>
       <c r="G414"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>409</v>
       </c>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="G415"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>409</v>
       </c>
@@ -11514,7 +11514,7 @@
       </c>
       <c r="G416"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>409</v>
       </c>
@@ -11532,7 +11532,7 @@
       </c>
       <c r="G417"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>409</v>
       </c>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="G418"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>409</v>
       </c>
@@ -11568,7 +11568,7 @@
       </c>
       <c r="G419"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>409</v>
       </c>
@@ -11586,7 +11586,7 @@
       </c>
       <c r="G420"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>409</v>
       </c>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="G421"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>409</v>
       </c>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="G422"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>409</v>
       </c>
@@ -11640,7 +11640,7 @@
       </c>
       <c r="G423"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>409</v>
       </c>
@@ -11658,7 +11658,7 @@
       </c>
       <c r="G424"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>409</v>
       </c>
@@ -11676,7 +11676,7 @@
       </c>
       <c r="G425"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>409</v>
       </c>
@@ -11694,7 +11694,7 @@
       </c>
       <c r="G426"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>409</v>
       </c>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="G427"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>409</v>
       </c>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="G428"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>409</v>
       </c>
@@ -11748,7 +11748,7 @@
       </c>
       <c r="G429"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>409</v>
       </c>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="G430"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>409</v>
       </c>
@@ -11784,7 +11784,7 @@
       </c>
       <c r="G431"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>409</v>
       </c>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="G432"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>409</v>
       </c>
@@ -11820,7 +11820,7 @@
       </c>
       <c r="G433"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>409</v>
       </c>
@@ -11838,7 +11838,7 @@
       </c>
       <c r="G434"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>409</v>
       </c>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="G435"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>409</v>
       </c>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="G436"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>409</v>
       </c>
@@ -11892,7 +11892,7 @@
       </c>
       <c r="G437"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>409</v>
       </c>
@@ -11910,7 +11910,7 @@
       </c>
       <c r="G438"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>409</v>
       </c>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="G439"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>409</v>
       </c>
@@ -11946,7 +11946,7 @@
       </c>
       <c r="G440"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>409</v>
       </c>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="G441"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>409</v>
       </c>
@@ -11982,7 +11982,7 @@
       </c>
       <c r="G442"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>601</v>
       </c>
@@ -12000,7 +12000,7 @@
       </c>
       <c r="G443"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>601</v>
       </c>
@@ -12018,7 +12018,7 @@
       </c>
       <c r="G444"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>601</v>
       </c>
@@ -12036,7 +12036,7 @@
       </c>
       <c r="G445"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>601</v>
       </c>
@@ -12054,7 +12054,7 @@
       </c>
       <c r="G446"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>601</v>
       </c>
@@ -12072,7 +12072,7 @@
       </c>
       <c r="G447"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>601</v>
       </c>
@@ -12090,7 +12090,7 @@
       </c>
       <c r="G448"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>601</v>
       </c>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="G449"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>601</v>
       </c>
@@ -12126,7 +12126,7 @@
       </c>
       <c r="G450"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>601</v>
       </c>
@@ -12144,7 +12144,7 @@
       </c>
       <c r="G451"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>601</v>
       </c>
@@ -12162,7 +12162,7 @@
       </c>
       <c r="G452"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>601</v>
       </c>
@@ -12180,7 +12180,7 @@
       </c>
       <c r="G453"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>601</v>
       </c>
@@ -12198,7 +12198,7 @@
       </c>
       <c r="G454"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>601</v>
       </c>
@@ -12216,7 +12216,7 @@
       </c>
       <c r="G455"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>601</v>
       </c>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="G456"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>601</v>
       </c>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="G457"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>601</v>
       </c>
@@ -12270,7 +12270,7 @@
       </c>
       <c r="G458"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>601</v>
       </c>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="G459"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>601</v>
       </c>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="G460"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>601</v>
       </c>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="G461"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>601</v>
       </c>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="G462"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>601</v>
       </c>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="G463"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>601</v>
       </c>
@@ -12378,7 +12378,7 @@
       </c>
       <c r="G464"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>601</v>
       </c>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="G465"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>601</v>
       </c>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="G466"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>601</v>
       </c>
@@ -12432,7 +12432,7 @@
       </c>
       <c r="G467"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>601</v>
       </c>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="G468"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>601</v>
       </c>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="G469"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>601</v>
       </c>
@@ -12486,7 +12486,7 @@
       </c>
       <c r="G470"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>601</v>
       </c>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="G471"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>601</v>
       </c>
@@ -12522,7 +12522,7 @@
       </c>
       <c r="G472"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>601</v>
       </c>
@@ -12540,7 +12540,7 @@
       </c>
       <c r="G473"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>601</v>
       </c>
@@ -12558,7 +12558,7 @@
       </c>
       <c r="G474"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>601</v>
       </c>
@@ -12576,7 +12576,7 @@
       </c>
       <c r="G475"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>601</v>
       </c>
@@ -12594,7 +12594,7 @@
       </c>
       <c r="G476"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>645</v>
       </c>
@@ -12610,7 +12610,7 @@
       <c r="F477" s="5"/>
       <c r="G477"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>645</v>
       </c>
@@ -12626,7 +12626,7 @@
       <c r="F478" s="5"/>
       <c r="G478"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>645</v>
       </c>
@@ -12642,7 +12642,7 @@
       <c r="F479" s="5"/>
       <c r="G479"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>645</v>
       </c>
@@ -12658,7 +12658,7 @@
       <c r="F480" s="5"/>
       <c r="G480"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>645</v>
       </c>
@@ -12674,7 +12674,7 @@
       <c r="F481" s="5"/>
       <c r="G481"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>645</v>
       </c>
@@ -12690,7 +12690,7 @@
       <c r="F482" s="5"/>
       <c r="G482"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>645</v>
       </c>
@@ -12706,7 +12706,7 @@
       <c r="F483" s="5"/>
       <c r="G483"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>645</v>
       </c>
@@ -12722,7 +12722,7 @@
       <c r="F484" s="5"/>
       <c r="G484"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>645</v>
       </c>
@@ -12738,7 +12738,7 @@
       <c r="F485" s="5"/>
       <c r="G485"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>645</v>
       </c>
@@ -12754,7 +12754,7 @@
       <c r="F486" s="5"/>
       <c r="G486"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>645</v>
       </c>
@@ -12770,7 +12770,7 @@
       <c r="F487" s="5"/>
       <c r="G487"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>645</v>
       </c>
@@ -12786,7 +12786,7 @@
       <c r="F488" s="5"/>
       <c r="G488"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>645</v>
       </c>
@@ -12802,7 +12802,7 @@
       <c r="F489" s="5"/>
       <c r="G489"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>645</v>
       </c>
@@ -12818,7 +12818,7 @@
       <c r="F490" s="5"/>
       <c r="G490"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>645</v>
       </c>
@@ -12834,7 +12834,7 @@
       <c r="F491" s="5"/>
       <c r="G491"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>645</v>
       </c>
@@ -12850,7 +12850,7 @@
       <c r="F492" s="5"/>
       <c r="G492"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>645</v>
       </c>
@@ -12866,7 +12866,7 @@
       <c r="F493" s="5"/>
       <c r="G493"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>645</v>
       </c>
@@ -12882,7 +12882,7 @@
       <c r="F494" s="5"/>
       <c r="G494"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>645</v>
       </c>
@@ -12898,7 +12898,7 @@
       <c r="F495" s="5"/>
       <c r="G495"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>645</v>
       </c>
@@ -12914,7 +12914,7 @@
       <c r="F496" s="5"/>
       <c r="G496"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>645</v>
       </c>
@@ -12930,7 +12930,7 @@
       <c r="F497" s="5"/>
       <c r="G497"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>645</v>
       </c>
@@ -12946,7 +12946,7 @@
       <c r="F498" s="5"/>
       <c r="G498"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>645</v>
       </c>
@@ -12962,7 +12962,7 @@
       <c r="F499" s="5"/>
       <c r="G499"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>645</v>
       </c>
@@ -12978,7 +12978,7 @@
       <c r="F500" s="5"/>
       <c r="G500"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>645</v>
       </c>
@@ -12994,7 +12994,7 @@
       <c r="F501" s="5"/>
       <c r="G501"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>645</v>
       </c>
@@ -13010,7 +13010,7 @@
       <c r="F502" s="5"/>
       <c r="G502"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>645</v>
       </c>
@@ -13026,7 +13026,7 @@
       <c r="F503" s="5"/>
       <c r="G503"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>645</v>
       </c>
@@ -13042,7 +13042,7 @@
       <c r="F504" s="5"/>
       <c r="G504"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>645</v>
       </c>
@@ -13058,7 +13058,7 @@
       <c r="F505" s="5"/>
       <c r="G505"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>645</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="F506" s="5"/>
       <c r="G506"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>645</v>
       </c>
@@ -13090,7 +13090,7 @@
       <c r="F507" s="5"/>
       <c r="G507"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>645</v>
       </c>
@@ -13106,7 +13106,7 @@
       <c r="F508" s="5"/>
       <c r="G508"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>645</v>
       </c>
@@ -13122,7 +13122,7 @@
       <c r="F509" s="5"/>
       <c r="G509"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>645</v>
       </c>
@@ -13138,7 +13138,7 @@
       <c r="F510" s="5"/>
       <c r="G510"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>645</v>
       </c>
@@ -13154,7 +13154,7 @@
       <c r="F511" s="5"/>
       <c r="G511"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>645</v>
       </c>
@@ -13170,7 +13170,7 @@
       <c r="F512" s="5"/>
       <c r="G512"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>645</v>
       </c>
@@ -13186,7 +13186,7 @@
       <c r="F513" s="5"/>
       <c r="G513"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>645</v>
       </c>
@@ -13202,7 +13202,7 @@
       <c r="F514" s="5"/>
       <c r="G514"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>645</v>
       </c>
@@ -13218,7 +13218,7 @@
       <c r="F515" s="5"/>
       <c r="G515"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>645</v>
       </c>
@@ -13234,7 +13234,7 @@
       <c r="F516" s="5"/>
       <c r="G516"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>645</v>
       </c>
@@ -13250,7 +13250,7 @@
       <c r="F517" s="5"/>
       <c r="G517"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>645</v>
       </c>
@@ -13266,7 +13266,7 @@
       <c r="F518" s="5"/>
       <c r="G518"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>645</v>
       </c>
@@ -13282,7 +13282,7 @@
       <c r="F519" s="5"/>
       <c r="G519"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>688</v>
       </c>
@@ -13300,7 +13300,7 @@
       </c>
       <c r="G520"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>688</v>
       </c>
@@ -13318,7 +13318,7 @@
       </c>
       <c r="G521"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>688</v>
       </c>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="G522"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>688</v>
       </c>
@@ -13354,7 +13354,7 @@
       </c>
       <c r="G523"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>688</v>
       </c>
@@ -13372,7 +13372,7 @@
       </c>
       <c r="G524"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>688</v>
       </c>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="G525"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>688</v>
       </c>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="G526"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>688</v>
       </c>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="G527"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>688</v>
       </c>
@@ -13444,7 +13444,7 @@
       </c>
       <c r="G528"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>688</v>
       </c>
@@ -13462,7 +13462,7 @@
       </c>
       <c r="G529"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>688</v>
       </c>
@@ -13480,7 +13480,7 @@
       </c>
       <c r="G530"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>688</v>
       </c>
@@ -13498,7 +13498,7 @@
       </c>
       <c r="G531"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>688</v>
       </c>
@@ -13516,7 +13516,7 @@
       </c>
       <c r="G532"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>688</v>
       </c>
@@ -13534,7 +13534,7 @@
       </c>
       <c r="G533"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>688</v>
       </c>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="G534"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>688</v>
       </c>
@@ -13570,7 +13570,7 @@
       </c>
       <c r="G535"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>688</v>
       </c>
@@ -13588,7 +13588,7 @@
       </c>
       <c r="G536"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>688</v>
       </c>
@@ -13606,7 +13606,7 @@
       </c>
       <c r="G537"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>688</v>
       </c>
@@ -13624,7 +13624,7 @@
       </c>
       <c r="G538"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>688</v>
       </c>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="G539"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>688</v>
       </c>
@@ -13660,7 +13660,7 @@
       </c>
       <c r="G540"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>688</v>
       </c>
@@ -13678,7 +13678,7 @@
       </c>
       <c r="G541"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>688</v>
       </c>
@@ -13696,7 +13696,7 @@
       </c>
       <c r="G542"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>688</v>
       </c>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="G543"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>688</v>
       </c>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="G544"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>688</v>
       </c>
@@ -13753,7 +13753,7 @@
       </c>
       <c r="G545"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>688</v>
       </c>
@@ -13774,7 +13774,7 @@
       </c>
       <c r="G546"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>688</v>
       </c>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="G547"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>688</v>
       </c>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="G548"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>688</v>
       </c>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="G549"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>688</v>
       </c>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="G550"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>688</v>
       </c>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="G551"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>688</v>
       </c>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="G552"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>688</v>
       </c>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="G553"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>688</v>
       </c>
@@ -13921,7 +13921,7 @@
       </c>
       <c r="G554"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>688</v>
       </c>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="G555"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>688</v>
       </c>
@@ -13960,7 +13960,7 @@
       </c>
       <c r="G556"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>688</v>
       </c>
@@ -13978,7 +13978,7 @@
       </c>
       <c r="G557"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>688</v>
       </c>
@@ -13996,7 +13996,7 @@
       </c>
       <c r="G558"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>688</v>
       </c>
@@ -14017,7 +14017,7 @@
       </c>
       <c r="G559"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>688</v>
       </c>
@@ -14035,7 +14035,7 @@
       </c>
       <c r="G560"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>688</v>
       </c>
@@ -14056,7 +14056,7 @@
       </c>
       <c r="G561"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>688</v>
       </c>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="G562"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>688</v>
       </c>
@@ -14092,7 +14092,7 @@
       </c>
       <c r="G563"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>688</v>
       </c>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="G564"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>688</v>
       </c>
@@ -14128,7 +14128,7 @@
       </c>
       <c r="G565"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>688</v>
       </c>
@@ -14146,7 +14146,7 @@
       </c>
       <c r="G566"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>688</v>
       </c>
@@ -14167,7 +14167,7 @@
       </c>
       <c r="G567"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>688</v>
       </c>
@@ -14188,7 +14188,7 @@
       </c>
       <c r="G568"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>688</v>
       </c>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="G569"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>688</v>
       </c>
@@ -14230,7 +14230,7 @@
       </c>
       <c r="G570"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>688</v>
       </c>
@@ -14251,7 +14251,7 @@
       </c>
       <c r="G571"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>688</v>
       </c>
@@ -14272,7 +14272,7 @@
       </c>
       <c r="G572"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>688</v>
       </c>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="G573"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>688</v>
       </c>
@@ -14314,7 +14314,7 @@
       </c>
       <c r="G574"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>688</v>
       </c>
@@ -14335,7 +14335,7 @@
       </c>
       <c r="G575"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>688</v>
       </c>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="G576"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>688</v>
       </c>
@@ -14371,7 +14371,7 @@
       </c>
       <c r="G577"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>688</v>
       </c>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="G578"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>688</v>
       </c>
@@ -14410,7 +14410,7 @@
       </c>
       <c r="G579"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>688</v>
       </c>
@@ -14428,7 +14428,7 @@
       </c>
       <c r="G580"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>688</v>
       </c>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="G581"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>688</v>
       </c>
@@ -14464,7 +14464,7 @@
       </c>
       <c r="G582"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>688</v>
       </c>
@@ -14482,7 +14482,7 @@
       </c>
       <c r="G583"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>688</v>
       </c>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="G584"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>688</v>
       </c>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="G585"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>688</v>
       </c>
@@ -14539,7 +14539,7 @@
       </c>
       <c r="G586"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>688</v>
       </c>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="G587"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>688</v>
       </c>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="G588"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>688</v>
       </c>
@@ -14593,7 +14593,7 @@
       </c>
       <c r="G589"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>688</v>
       </c>
@@ -14611,7 +14611,7 @@
       </c>
       <c r="G590"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>688</v>
       </c>
@@ -14629,7 +14629,7 @@
       </c>
       <c r="G591"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>688</v>
       </c>
@@ -14647,7 +14647,7 @@
       </c>
       <c r="G592"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>688</v>
       </c>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="G593"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>688</v>
       </c>
@@ -14683,7 +14683,7 @@
       </c>
       <c r="G594"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>688</v>
       </c>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="G595"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>688</v>
       </c>
@@ -14722,7 +14722,7 @@
       </c>
       <c r="G596"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>688</v>
       </c>
@@ -14743,7 +14743,7 @@
       </c>
       <c r="G597"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>688</v>
       </c>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="G598"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>688</v>
       </c>
@@ -14779,7 +14779,7 @@
       </c>
       <c r="G599"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>688</v>
       </c>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="G600"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>688</v>
       </c>
@@ -14818,7 +14818,7 @@
       </c>
       <c r="G601"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>688</v>
       </c>
@@ -14839,7 +14839,7 @@
       </c>
       <c r="G602"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>688</v>
       </c>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="G603"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>688</v>
       </c>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="G604"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>688</v>
       </c>
@@ -14902,7 +14902,7 @@
       </c>
       <c r="G605"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>688</v>
       </c>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="G606"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>688</v>
       </c>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="G607"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>688</v>
       </c>
@@ -14962,7 +14962,7 @@
       </c>
       <c r="G608"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>688</v>
       </c>
@@ -14983,7 +14983,7 @@
       </c>
       <c r="G609"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>688</v>
       </c>
@@ -15004,7 +15004,7 @@
       </c>
       <c r="G610"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>688</v>
       </c>
@@ -15025,7 +15025,7 @@
       </c>
       <c r="G611"/>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>688</v>
       </c>
@@ -15046,7 +15046,7 @@
       </c>
       <c r="G612"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>688</v>
       </c>
@@ -15067,7 +15067,7 @@
       </c>
       <c r="G613"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>688</v>
       </c>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="G614"/>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>688</v>
       </c>
@@ -15106,7 +15106,7 @@
       </c>
       <c r="G615"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>688</v>
       </c>
@@ -15124,7 +15124,7 @@
       </c>
       <c r="G616"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>688</v>
       </c>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="G617"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>688</v>
       </c>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="G618"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>688</v>
       </c>
@@ -15178,7 +15178,7 @@
       </c>
       <c r="G619"/>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>688</v>
       </c>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="G620"/>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>688</v>
       </c>
@@ -15217,7 +15217,7 @@
       </c>
       <c r="G621"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>688</v>
       </c>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="G622"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>688</v>
       </c>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="G623"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>688</v>
       </c>
@@ -15271,7 +15271,7 @@
       </c>
       <c r="G624"/>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>688</v>
       </c>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="G625"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>688</v>
       </c>
@@ -15307,7 +15307,7 @@
       </c>
       <c r="G626"/>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>688</v>
       </c>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="G627"/>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>688</v>
       </c>
@@ -15343,7 +15343,7 @@
       </c>
       <c r="G628"/>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>688</v>
       </c>
@@ -15361,7 +15361,7 @@
       </c>
       <c r="G629"/>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>688</v>
       </c>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="G630"/>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>688</v>
       </c>
@@ -15397,7 +15397,7 @@
       </c>
       <c r="G631"/>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>688</v>
       </c>
@@ -15415,7 +15415,7 @@
       </c>
       <c r="G632"/>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>688</v>
       </c>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="G633"/>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>688</v>
       </c>
@@ -15451,7 +15451,7 @@
       </c>
       <c r="G634"/>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>688</v>
       </c>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="G635"/>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>688</v>
       </c>
@@ -15487,7 +15487,7 @@
       </c>
       <c r="G636"/>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>688</v>
       </c>
@@ -15505,7 +15505,7 @@
       </c>
       <c r="G637"/>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>688</v>
       </c>
@@ -15523,7 +15523,7 @@
       </c>
       <c r="G638"/>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>688</v>
       </c>
@@ -15541,7 +15541,7 @@
       </c>
       <c r="G639"/>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>688</v>
       </c>
@@ -15559,7 +15559,7 @@
       </c>
       <c r="G640"/>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>688</v>
       </c>
@@ -15577,7 +15577,7 @@
       </c>
       <c r="G641"/>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>688</v>
       </c>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="G642"/>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>688</v>
       </c>
@@ -15616,7 +15616,7 @@
       </c>
       <c r="G643"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>688</v>
       </c>
@@ -15637,7 +15637,7 @@
       </c>
       <c r="G644"/>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>688</v>
       </c>
@@ -15658,7 +15658,7 @@
       </c>
       <c r="G645"/>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>688</v>
       </c>
@@ -15679,7 +15679,7 @@
       </c>
       <c r="G646"/>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>688</v>
       </c>
@@ -15700,7 +15700,7 @@
       </c>
       <c r="G647"/>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>688</v>
       </c>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="G648"/>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>688</v>
       </c>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="G649"/>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>688</v>
       </c>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="G650"/>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>688</v>
       </c>
@@ -15778,7 +15778,7 @@
       </c>
       <c r="G651"/>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>688</v>
       </c>
@@ -15799,7 +15799,7 @@
       </c>
       <c r="G652"/>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>688</v>
       </c>
@@ -15820,7 +15820,7 @@
       </c>
       <c r="G653"/>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>688</v>
       </c>
@@ -15841,7 +15841,7 @@
       </c>
       <c r="G654"/>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>688</v>
       </c>
@@ -15859,7 +15859,7 @@
       </c>
       <c r="G655"/>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>688</v>
       </c>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="G656"/>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>688</v>
       </c>
@@ -15898,7 +15898,7 @@
       </c>
       <c r="G657"/>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>688</v>
       </c>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="G658"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>688</v>
       </c>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="G659"/>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>688</v>
       </c>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="G660"/>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>688</v>
       </c>
@@ -15979,7 +15979,7 @@
       </c>
       <c r="G661"/>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>688</v>
       </c>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="G662"/>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>688</v>
       </c>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="G663"/>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>688</v>
       </c>
@@ -16033,7 +16033,7 @@
       </c>
       <c r="G664"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>688</v>
       </c>
@@ -16051,7 +16051,7 @@
       </c>
       <c r="G665"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>688</v>
       </c>
@@ -16069,7 +16069,7 @@
       </c>
       <c r="G666"/>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>688</v>
       </c>
@@ -16087,7 +16087,7 @@
       </c>
       <c r="G667"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>688</v>
       </c>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="G668"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>688</v>
       </c>
@@ -16123,7 +16123,7 @@
       </c>
       <c r="G669"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>688</v>
       </c>
@@ -16141,7 +16141,7 @@
       </c>
       <c r="G670"/>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>688</v>
       </c>
@@ -16159,7 +16159,7 @@
       </c>
       <c r="G671"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>688</v>
       </c>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="G672"/>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>688</v>
       </c>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="G673"/>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>688</v>
       </c>
@@ -16213,7 +16213,7 @@
       </c>
       <c r="G674"/>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>688</v>
       </c>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="G675"/>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>688</v>
       </c>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="G676"/>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>688</v>
       </c>
@@ -16267,7 +16267,7 @@
       </c>
       <c r="G677"/>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>688</v>
       </c>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="G678"/>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>688</v>
       </c>
@@ -16303,7 +16303,7 @@
       </c>
       <c r="G679"/>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>688</v>
       </c>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="G680"/>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>688</v>
       </c>
@@ -16339,7 +16339,7 @@
       </c>
       <c r="G681"/>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>688</v>
       </c>
@@ -16357,7 +16357,7 @@
       </c>
       <c r="G682"/>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>688</v>
       </c>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="G683"/>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>688</v>
       </c>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="G684"/>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>688</v>
       </c>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="G685"/>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>688</v>
       </c>
@@ -16432,7 +16432,7 @@
       </c>
       <c r="G686"/>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>688</v>
       </c>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="G687"/>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>688</v>
       </c>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G688"/>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>688</v>
       </c>
@@ -16486,7 +16486,7 @@
       </c>
       <c r="G689"/>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>688</v>
       </c>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="G690"/>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>688</v>
       </c>
@@ -16522,7 +16522,7 @@
       </c>
       <c r="G691"/>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>688</v>
       </c>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="G692"/>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>688</v>
       </c>
@@ -16558,7 +16558,7 @@
       </c>
       <c r="G693"/>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>688</v>
       </c>
@@ -16576,7 +16576,7 @@
       </c>
       <c r="G694"/>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>688</v>
       </c>
@@ -16594,7 +16594,7 @@
       </c>
       <c r="G695"/>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>688</v>
       </c>
@@ -16612,7 +16612,7 @@
       </c>
       <c r="G696"/>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>688</v>
       </c>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="G697"/>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>688</v>
       </c>
@@ -16648,7 +16648,7 @@
       </c>
       <c r="G698"/>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>688</v>
       </c>
@@ -16666,7 +16666,7 @@
       </c>
       <c r="G699"/>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>688</v>
       </c>
@@ -16684,7 +16684,7 @@
       </c>
       <c r="G700"/>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>688</v>
       </c>
@@ -16702,7 +16702,7 @@
       </c>
       <c r="G701"/>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>688</v>
       </c>
@@ -16720,7 +16720,7 @@
       </c>
       <c r="G702"/>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>688</v>
       </c>
@@ -16738,7 +16738,7 @@
       </c>
       <c r="G703"/>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>688</v>
       </c>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="G704"/>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>688</v>
       </c>
@@ -16774,7 +16774,7 @@
       </c>
       <c r="G705"/>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>688</v>
       </c>
@@ -16792,7 +16792,7 @@
       </c>
       <c r="G706"/>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>688</v>
       </c>
@@ -16810,7 +16810,7 @@
       </c>
       <c r="G707"/>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>688</v>
       </c>
@@ -16828,7 +16828,7 @@
       </c>
       <c r="G708"/>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>688</v>
       </c>
@@ -16846,7 +16846,7 @@
       </c>
       <c r="G709"/>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>688</v>
       </c>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="G710"/>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>688</v>
       </c>
@@ -16882,7 +16882,7 @@
       </c>
       <c r="G711"/>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>688</v>
       </c>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="G712"/>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>688</v>
       </c>
@@ -16918,7 +16918,7 @@
       </c>
       <c r="G713"/>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>688</v>
       </c>
@@ -16936,7 +16936,7 @@
       </c>
       <c r="G714"/>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>688</v>
       </c>
@@ -16954,7 +16954,7 @@
       </c>
       <c r="G715"/>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>688</v>
       </c>
@@ -16972,7 +16972,7 @@
       </c>
       <c r="G716"/>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>688</v>
       </c>
@@ -16990,7 +16990,7 @@
       </c>
       <c r="G717"/>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>688</v>
       </c>
@@ -17008,7 +17008,7 @@
       </c>
       <c r="G718"/>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>688</v>
       </c>
@@ -17026,7 +17026,7 @@
       </c>
       <c r="G719"/>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>688</v>
       </c>
@@ -17044,7 +17044,7 @@
       </c>
       <c r="G720"/>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>688</v>
       </c>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="G721"/>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>688</v>
       </c>
@@ -17080,7 +17080,7 @@
       </c>
       <c r="G722"/>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>688</v>
       </c>
@@ -17098,7 +17098,7 @@
       </c>
       <c r="G723"/>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>688</v>
       </c>
@@ -17116,7 +17116,7 @@
       </c>
       <c r="G724"/>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>688</v>
       </c>
@@ -17134,7 +17134,7 @@
       </c>
       <c r="G725"/>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>688</v>
       </c>
@@ -17152,7 +17152,7 @@
       </c>
       <c r="G726"/>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>688</v>
       </c>
@@ -17170,7 +17170,7 @@
       </c>
       <c r="G727"/>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>688</v>
       </c>
@@ -17188,7 +17188,7 @@
       </c>
       <c r="G728"/>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>688</v>
       </c>
@@ -17206,7 +17206,7 @@
       </c>
       <c r="G729"/>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>688</v>
       </c>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="G730"/>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>688</v>
       </c>
@@ -17242,7 +17242,7 @@
       </c>
       <c r="G731"/>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>688</v>
       </c>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="G732"/>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>688</v>
       </c>
@@ -17278,7 +17278,7 @@
       </c>
       <c r="G733"/>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>688</v>
       </c>
@@ -17296,7 +17296,7 @@
       </c>
       <c r="G734"/>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>688</v>
       </c>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="G735"/>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>688</v>
       </c>
@@ -17332,7 +17332,7 @@
       </c>
       <c r="G736"/>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>688</v>
       </c>
@@ -17350,7 +17350,7 @@
       </c>
       <c r="G737"/>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>688</v>
       </c>
@@ -17368,7 +17368,7 @@
       </c>
       <c r="G738"/>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>688</v>
       </c>
@@ -17386,7 +17386,7 @@
       </c>
       <c r="G739"/>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>688</v>
       </c>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="G740"/>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>688</v>
       </c>
@@ -17422,7 +17422,7 @@
       </c>
       <c r="G741"/>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>688</v>
       </c>
@@ -17440,7 +17440,7 @@
       </c>
       <c r="G742"/>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>688</v>
       </c>
@@ -17458,7 +17458,7 @@
       </c>
       <c r="G743"/>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>688</v>
       </c>
@@ -17476,7 +17476,7 @@
       </c>
       <c r="G744"/>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>688</v>
       </c>
@@ -17494,7 +17494,7 @@
       </c>
       <c r="G745"/>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>688</v>
       </c>
@@ -17512,7 +17512,7 @@
       </c>
       <c r="G746"/>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>688</v>
       </c>
@@ -17530,7 +17530,7 @@
       </c>
       <c r="G747"/>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A748" t="s">
         <v>688</v>
       </c>
@@ -17548,7 +17548,7 @@
       </c>
       <c r="G748"/>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>688</v>
       </c>
@@ -17566,7 +17566,7 @@
       </c>
       <c r="G749"/>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>688</v>
       </c>
@@ -17584,7 +17584,7 @@
       </c>
       <c r="G750"/>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>688</v>
       </c>
@@ -17605,7 +17605,7 @@
       </c>
       <c r="G751"/>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>688</v>
       </c>
@@ -17623,7 +17623,7 @@
       </c>
       <c r="G752"/>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>688</v>
       </c>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="G753"/>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>688</v>
       </c>
@@ -17662,7 +17662,7 @@
       </c>
       <c r="G754"/>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>688</v>
       </c>
@@ -17680,7 +17680,7 @@
       </c>
       <c r="G755"/>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>688</v>
       </c>
@@ -17698,7 +17698,7 @@
       </c>
       <c r="G756"/>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>688</v>
       </c>
@@ -17719,7 +17719,7 @@
       </c>
       <c r="G757"/>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>688</v>
       </c>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="G758"/>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>688</v>
       </c>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="G759"/>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
         <v>688</v>
       </c>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="G760"/>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
         <v>688</v>
       </c>
@@ -17791,7 +17791,7 @@
       </c>
       <c r="G761"/>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
         <v>688</v>
       </c>
@@ -17809,7 +17809,7 @@
       </c>
       <c r="G762"/>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>688</v>
       </c>
@@ -17827,7 +17827,7 @@
       </c>
       <c r="G763"/>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
         <v>688</v>
       </c>
@@ -17845,7 +17845,7 @@
       </c>
       <c r="G764"/>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
         <v>688</v>
       </c>
@@ -17863,7 +17863,7 @@
       </c>
       <c r="G765"/>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
         <v>688</v>
       </c>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="G766"/>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A767" t="s">
         <v>688</v>
       </c>
@@ -17899,7 +17899,7 @@
       </c>
       <c r="G767"/>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A768" t="s">
         <v>688</v>
       </c>
@@ -17917,7 +17917,7 @@
       </c>
       <c r="G768"/>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
         <v>688</v>
       </c>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="G769"/>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
         <v>688</v>
       </c>
@@ -17953,7 +17953,7 @@
       </c>
       <c r="G770"/>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>688</v>
       </c>
@@ -17971,7 +17971,7 @@
       </c>
       <c r="G771"/>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
         <v>688</v>
       </c>
@@ -17989,7 +17989,7 @@
       </c>
       <c r="G772"/>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
         <v>688</v>
       </c>
@@ -18007,7 +18007,7 @@
       </c>
       <c r="G773"/>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>688</v>
       </c>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="G774"/>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
         <v>688</v>
       </c>
@@ -18043,7 +18043,7 @@
       </c>
       <c r="G775"/>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
         <v>688</v>
       </c>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="G776"/>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
         <v>688</v>
       </c>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="G777"/>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
         <v>688</v>
       </c>
@@ -18097,7 +18097,7 @@
       </c>
       <c r="G778"/>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
         <v>688</v>
       </c>
@@ -18115,7 +18115,7 @@
       </c>
       <c r="G779"/>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
         <v>688</v>
       </c>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="G780"/>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
         <v>688</v>
       </c>
@@ -18151,7 +18151,7 @@
       </c>
       <c r="G781"/>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>688</v>
       </c>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="G782"/>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>688</v>
       </c>
@@ -18187,7 +18187,7 @@
       </c>
       <c r="G783"/>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
         <v>688</v>
       </c>
@@ -18205,7 +18205,7 @@
       </c>
       <c r="G784"/>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
         <v>688</v>
       </c>
@@ -18223,7 +18223,7 @@
       </c>
       <c r="G785"/>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
         <v>688</v>
       </c>
@@ -18241,7 +18241,7 @@
       </c>
       <c r="G786"/>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
         <v>688</v>
       </c>
@@ -18259,7 +18259,7 @@
       </c>
       <c r="G787"/>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
         <v>688</v>
       </c>
@@ -18277,7 +18277,7 @@
       </c>
       <c r="G788"/>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
         <v>688</v>
       </c>
@@ -18295,7 +18295,7 @@
       </c>
       <c r="G789"/>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
         <v>688</v>
       </c>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="G790"/>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
         <v>688</v>
       </c>
@@ -18331,7 +18331,7 @@
       </c>
       <c r="G791"/>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
         <v>688</v>
       </c>
@@ -18349,7 +18349,7 @@
       </c>
       <c r="G792"/>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
         <v>688</v>
       </c>
@@ -18367,7 +18367,7 @@
       </c>
       <c r="G793"/>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>688</v>
       </c>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="G794"/>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>688</v>
       </c>
@@ -18403,7 +18403,7 @@
       </c>
       <c r="G795"/>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
         <v>688</v>
       </c>
@@ -18421,7 +18421,7 @@
       </c>
       <c r="G796"/>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
         <v>688</v>
       </c>
@@ -18439,7 +18439,7 @@
       </c>
       <c r="G797"/>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
         <v>688</v>
       </c>
@@ -18457,7 +18457,7 @@
       </c>
       <c r="G798"/>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
         <v>688</v>
       </c>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="G799"/>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
         <v>688</v>
       </c>
@@ -18493,7 +18493,7 @@
       </c>
       <c r="G800"/>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
         <v>688</v>
       </c>
@@ -18511,7 +18511,7 @@
       </c>
       <c r="G801"/>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
         <v>688</v>
       </c>
@@ -18529,7 +18529,7 @@
       </c>
       <c r="G802"/>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
         <v>688</v>
       </c>
@@ -18547,7 +18547,7 @@
       </c>
       <c r="G803"/>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
         <v>688</v>
       </c>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="G804"/>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
         <v>688</v>
       </c>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="G805"/>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>688</v>
       </c>
@@ -18604,7 +18604,7 @@
       </c>
       <c r="G806"/>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>688</v>
       </c>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="G807"/>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
         <v>688</v>
       </c>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="G808"/>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
         <v>688</v>
       </c>
@@ -18661,7 +18661,7 @@
       </c>
       <c r="G809"/>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
         <v>688</v>
       </c>
@@ -18682,7 +18682,7 @@
       </c>
       <c r="G810"/>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
         <v>688</v>
       </c>
@@ -18703,7 +18703,7 @@
       </c>
       <c r="G811"/>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
         <v>688</v>
       </c>
@@ -18724,7 +18724,7 @@
       </c>
       <c r="G812"/>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
         <v>688</v>
       </c>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="G813"/>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
         <v>688</v>
       </c>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="G814"/>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
         <v>688</v>
       </c>
@@ -18784,7 +18784,7 @@
       </c>
       <c r="G815"/>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
         <v>688</v>
       </c>
@@ -18805,7 +18805,7 @@
       </c>
       <c r="G816"/>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
         <v>688</v>
       </c>
@@ -18826,7 +18826,7 @@
       </c>
       <c r="G817"/>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>688</v>
       </c>
@@ -18847,7 +18847,7 @@
       </c>
       <c r="G818"/>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>688</v>
       </c>
@@ -18868,7 +18868,7 @@
       </c>
       <c r="G819"/>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
         <v>688</v>
       </c>
@@ -18889,7 +18889,7 @@
       </c>
       <c r="G820"/>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
         <v>688</v>
       </c>
@@ -18907,7 +18907,7 @@
       </c>
       <c r="G821"/>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
         <v>688</v>
       </c>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="G822"/>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
         <v>688</v>
       </c>
@@ -18943,7 +18943,7 @@
       </c>
       <c r="G823"/>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
         <v>688</v>
       </c>
@@ -18961,7 +18961,7 @@
       </c>
       <c r="G824"/>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
         <v>688</v>
       </c>
@@ -18979,7 +18979,7 @@
       </c>
       <c r="G825"/>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
         <v>688</v>
       </c>
@@ -18997,7 +18997,7 @@
       </c>
       <c r="G826"/>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
         <v>688</v>
       </c>
